--- a/raw_data/highest_lowest_RV_for_inspection_data_PederMI.xlsx
+++ b/raw_data/highest_lowest_RV_for_inspection_data_PederMI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peder\Dropbox\jobb\PhD\Projects\2019_NeuroRep_Replication_Value\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1123058-424F-4796-900D-616209DF7911}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256783B4-5DBF-47E1-93CA-52B2D98B9706}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="292">
   <si>
     <t>RV position</t>
   </si>
@@ -734,12 +734,6 @@
 Face valid: Clearly social neurosci.</t>
   </si>
   <si>
-    <t xml:space="preserve">ERROR: Sample size is 16, not 1. 
-From the abstract alone, study design quality seems… iffy. 
-Face valid: Clearly social neurosci.
-Face valid: Skimming the methods and conclusions, this study seems more like the standard shaky low-n fMRI study I would want to see replicated. </t>
-  </si>
-  <si>
     <t xml:space="preserve">OBS: Has been replicated at least once by 10.1016/j.neuroimage.2008.09.062.
 Face valid: Main findings of study 1 still cited by recently published papers. 
 Uncertain how to estimate power based on 9 min resting state data. </t>
@@ -747,10 +741,6 @@
   <si>
     <t>Face valid: The topic (machine-learning prediction of emotional state based on fmri data) seems like an important topic in practice, which could also explain the high Altmetric score. 
 OBS: Each participant contributes 6 repetitions * 18 emotion words = 108 trials. Sample size might underestimate power.</t>
-  </si>
-  <si>
-    <t>OBS: If "study 2" refers to the animal species perception study, it is not clear that this categorizes as social neuroscience.
-OBS: Each participant seems to contribute multiple trials to the overall analyses.</t>
   </si>
   <si>
     <t xml:space="preserve">Study 1b in the article likely coded as study 2 in our data, which means study 4 here refers to study 3 in the article.
@@ -819,9 +809,6 @@
     <t xml:space="preserve">OBS: Relationship between sample size and power is complicated. On the one hand, participants contributes multiple trials each. On the other hand, experiment consists of 4 between-subject groups, which could imply that total sample size overestimates overal statistical power. </t>
   </si>
   <si>
-    <t xml:space="preserve">ERROR: This is a VBM study, not fMRI. </t>
-  </si>
-  <si>
     <t xml:space="preserve">rsFMRI procedure seems in this case to imply that RS results are simple between-subject correlations between some average RS measure and behavioral performance. Thus, sample size might be a more decent estiamte of power here than in many of the other designs. </t>
   </si>
   <si>
@@ -831,11 +818,6 @@
   <si>
     <t xml:space="preserve">OBS: I wonder how the duration of each boxcar block influences the statistical power of a design like this. 
 Face valid: The study seems important, and testing the paradigm in a larger sample to improve precision of the anatomical estimates appear beneficial for a localization task like this. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OBS: Continous movie stimuli used, which means each participant contributes a lot of information to the overall analysis. Sample size may not accurately reflect power. 
-OBS: Not clear how topic is related to social neurosci. 
-Primary reason for high altmetric score seems to be a news-report hang-up on specultation that use of GPS causes brain regions to "switch off"... hmm. </t>
   </si>
   <si>
     <t xml:space="preserve">Face valid: I am biased due to prior interest in topic, but this is just the kind of study I would want to see replicated in a larger sample.
@@ -847,6 +829,134 @@
   </si>
   <si>
     <t xml:space="preserve">Face valid: Article concerns ingroup/outgroup bias and makes a rather bold claim in abstract ("the current findings may prove useful as an objective diagnostic tool to measure the magnitude of one's group affiliations, and the effectiveness of interventions to reduce ingroup biases.") which I can see how would peak public interest. </t>
+  </si>
+  <si>
+    <t>WOS:000280503500019</t>
+  </si>
+  <si>
+    <t>10.1523/JNEUROSCI.2161-10.2010</t>
+  </si>
+  <si>
+    <t>Supramodal Representations of Perceived Emotions in the Human Brain</t>
+  </si>
+  <si>
+    <t>Peelen, MV; Atkinson, AP; Vuilleumier, P</t>
+  </si>
+  <si>
+    <t>Basic emotional states (such as anger, fear, and joy) can be similarly conveyed by the face, the body, and the voice. Are there human brain regions that represent these emotional mental states regardless of the sensory cues from which they are perceived? To address this question, in the present study participants evaluated the intensity of emotions perceived from face movements, body movements, or vocal intonations, while their brain activity was measured with functional magnetic resonance imaging (fMRI). Using multivoxel pattern analysis, we compared the similarity of response patterns across modalities to test for brain regions in which emotion-specific patterns in one modality (e. g., faces) could predict emotion-specific patterns in another modality (e. g., bodies). A whole-brain searchlight analysis revealed modality-independent but emotion category-specific activity patterns in medial prefrontal cortex (MPFC) and left superior temporal sulcus (STS). Multivoxel patterns in these regions contained information about the category of the perceived emotions (anger, disgust, fear, happiness, sadness) across all modality comparisons (face-body, face-voice, body-voice), and independently of the perceived intensity of the emotions. No systematic emotion-related differences were observed in the overall amplitude of activation in MPFC or STS. These results reveal supramodal representations of emotions in high-level brain areas previously implicated in affective processing, mental state attribution, and theory-of-mind. We suggest that MPFC and STS represent perceived emotions at an abstract, modality-independent level, and thus play a key role in the understanding and categorization of others' emotional mental states.</t>
+  </si>
+  <si>
+    <t>WOS:000263295400043</t>
+  </si>
+  <si>
+    <t>10.1126/science.1165604</t>
+  </si>
+  <si>
+    <t>When Your Gain Is My Pain and Your Pain Is My Gain: Neural Correlates of Envy and Schadenfreude</t>
+  </si>
+  <si>
+    <t>Takahashi, H; Kato, M; Matsuura, M; Mobbs, D; Suhara, T; Okubo, Y</t>
+  </si>
+  <si>
+    <t>We often evaluate the self and others from social comparisons. We feel envy when the target person has superior and self- relevant characteristics. Schadenfreude occurs when envied persons fall from grace. To elucidate the neurocognitive mechanisms of envy and schadenfreude, we conducted two functional magnetic resonance imaging studies. In study one, the participants read information concerning target persons characterized by levels of possession and self- relevance of comparison domains. When the target person's possession was superior and self- relevant, stronger envy and stronger anterior cingulate cortex ( ACC) activation were induced. In study two, stronger schadenfreude and stronger striatum activation were induced when misfortunes happened to envied persons. ACC activation in study one predicted ventral striatum activation in study two. Our findings document mechanisms of painful emotion, envy, and a rewarding reaction, schadenfreude.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMOVED AFTER CORRECTING RV
+ERROR: Sample size is 16, not 1. 
+From the abstract alone, study design quality seems… iffy. 
+Face valid: Clearly social neurosci.
+Face valid: Skimming the methods and conclusions, this study seems more like the standard shaky low-n fMRI study I would want to see replicated. </t>
+  </si>
+  <si>
+    <t>REMOVED AFTER CORRECTING RV
+OBS: If "study 2" refers to the animal species perception study, it is not clear that this categorizes as social neuroscience.
+OBS: Each participant seems to contribute multiple trials to the overall analyses.</t>
+  </si>
+  <si>
+    <t>WOS:000436471500009</t>
+  </si>
+  <si>
+    <t>10.1016/j.biopsycho.2018.02.018</t>
+  </si>
+  <si>
+    <t>Stress evokes stronger medial posterior cingulate deactivations during emotional distraction in slower paced aging</t>
+  </si>
+  <si>
+    <t>Oei, NYL; Jansen, SW; Veer, IM; Slagboom, PE; van de Grond, J; van Heemst, D</t>
+  </si>
+  <si>
+    <t>Introduction: Middle-aged offspring from long-lived families are thought to have a slower pace of aging, possibly related to HPA-axis function. Here, we investigated the neural and behavioral effects of social stress in offspring compared to their regular aging partners on emotional distraction during working memory (WM). Methods: 104 middle-aged participants (53 males) consisting of offspring and their partners underwent the Trier Social Stress Test or a control procedure. Hereafter, a WM task with emotional distracters was performed using fMRI. Saliva cortisol levels were obtained during the procedure. Results: Partners had higher overall cortisol levels than offspring. In addition, partners had decreased deactivations compared to offspring in the medial posterior cingulate cortex (mPCC) during emotional distraction, which were significantly correlated with lower accuracy during emotional distraction. Discussion: mPCC-deactivations are known to be modulated by chronological aging, with more deactivations in the young than in the old. Here we show the same pattern in familial longevity versus regular aging after mild stress, with more deactivations related to better accuracy during emotional distraction. Functional mPCC deactivations might thus be related to pace of aging, and can be revealed by inducing mild stress.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMOVED AFTER RV CORRECTED
+ERROR: This is a VBM study, not fMRI. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(new after correcting RV)
+Two studies are mentioned but really seem to be two tasks in one overarching experiment. The same participants participate in both experiments
+Face valid: Very much the type of study I would like to see replicated: A localizer task for an emotional phenomenon that is based on a few participants who don't contribute very many trials each.
+Searching citing articles on scite for *replicat* reveals that people have already attempted to replicate this study. Some have succeded, others have failed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(new after correcting RV)
+MVPA 
+OBS: Each participants contributes 216 trials to the analyses. Sample size may underestimate power. 
+Searching scite reveals no obvious direct replication attempts, but suggests that several studies have followed up on these results and may inform the overall uncertainty about the claims this study presents. </t>
+  </si>
+  <si>
+    <t>(new after correcting RV)
+Face valid: The effect studied appears niche/interactional. 
+OBS: Each participant contributes multiple trials. However, the main effect conditions are between-subject, suggesting perhaps a closer relationship between sample size and power than in many of the other study designs reviewed here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBS: Each participant contributes a number of trials to the final analyses.
+Face valid: Clearly a topic in the social fMRI literature which has received a lot of attention. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBS: Each participant contributes a number of trials to the final analyses. 
+OBS: Participant group is clinical, which matches our initial exclusion criteria. 
+Face valid: Study topic seems superficially important. </t>
+  </si>
+  <si>
+    <t>Not intuitive to me why this study should receive such a high altmetric score. 
+OBS: Each participant contributes several trials to the final analyses.</t>
+  </si>
+  <si>
+    <t>Face valid: Between-subject genetic effects on BOLD suggests that sample size might be a better predictor of overall power than in the designes where each subject contributes multiple trials.
+OBS: Not obviously social neuroscience. Also, not obvious to me that topic is less important than some topics in the highest RValt category.</t>
+  </si>
+  <si>
+    <t>Understandable why the study has a low altmetric score (technical genetic stuff). 
+Methodologically speaking, this is the sort of study I would like to see replicated. It appears exploratory and with a high risk of type-1 errors occuring. Especially if many genes/tasks were measured in the study.
+Genetic effects on resting state connectivity suggests participants contributes only one gene data point each, meaning n might be a decent estimator of power in this study.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resting-state connectivity used to predict well-being scale scores, which suggests between-subject design where  participants contribute only one data point each to analyses. The difference in power between this study and some of the studies in the top altmetric group is not entirely clear. 
+Not intuitive why altmetric score is low. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sex-creativity-brain area interactions seem fairly exploratory. Importance of the study findings seem low on the face of it. 
+Large sample. Each participant contributes one creativity test score to the main analyses. Not entirely sure how to think about resting state data provided in terms of their contribution to statistical power. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intuitively understandable why altmetric score is low - study is rather technical. However, topic seems overall interesting enough. 
+OBS: Relationship between sample size and power tricky. On the one hand, participants contribute multiple trials in the RMET. However, analysis seems to focus on correlation between overall connectivity and overall RMET score, which means each subject provides one data point each in the end (although length of RSfmri and number of RMET trials may help to estimate this point more precisely for each participant). </t>
+  </si>
+  <si>
+    <t>OBS: Topic is not obviously social neurosci. 
+OBS: Each participant contributes multiple trials to analysis (not sure how to estimate power for RSFC paradigms).
+Face valid: This topic seems rather niche. From the abstract, the study motivation also seems somewhat weak, and I can understand why altmetric score is low.</t>
+  </si>
+  <si>
+    <t>OBS: Analyses seems to focus on BOLD associations with overall emotional inteligence test scores, of which each participant can only provide 1. Is it possible that n=85 in a paradigm like this could be as low-powered as n=15 in one of the repeated-measures designs in the top RV group?</t>
+  </si>
+  <si>
+    <t>ERROR: Only 114 participants were included in analyses after exclusions.</t>
+  </si>
+  <si>
+    <t>OBS: Continous movie stimuli used, which means each participant contributes a lot of information to the overall analysis. Sample size may not accurately reflect power. 
+OBS: Not clear how topic is related to social neurosci. 
+Primary reason for high altmetric score seems to be a news-report hang-up on specultation that use of GPS causes brain regions to "switch off".</t>
   </si>
 </sst>
 </file>
@@ -989,7 +1099,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1175,6 +1285,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -1345,7 +1467,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1359,6 +1481,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1719,17 +1849,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="4" max="4" width="94.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="64.42578125" style="4" customWidth="1"/>
     <col min="7" max="7" width="5.28515625" customWidth="1"/>
     <col min="8" max="8" width="7.7109375" customWidth="1"/>
     <col min="9" max="9" width="8.140625" customWidth="1"/>
@@ -2004,48 +2134,48 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:14" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8">
         <v>2018</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="8">
         <v>3</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="8">
         <v>4.0999999999999996</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
+      <c r="K7" s="8">
+        <v>1</v>
+      </c>
+      <c r="L7" s="8">
         <v>1.5</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="8">
         <v>4.0999999999999996</v>
       </c>
-      <c r="N7" s="4" t="s">
-        <v>235</v>
+      <c r="N7" s="9" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="105" x14ac:dyDescent="0.25">
@@ -2089,7 +2219,7 @@
         <v>25</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="90" x14ac:dyDescent="0.25">
@@ -2133,51 +2263,51 @@
         <v>21.2912</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="8">
         <v>2</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="8">
         <v>2016</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="8">
         <v>54</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="8">
         <v>23.35</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="8">
         <v>10</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="8">
         <v>1.35</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="8">
         <v>2.335</v>
       </c>
-      <c r="N10" s="4" t="s">
-        <v>238</v>
+      <c r="N10" s="9" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="150" x14ac:dyDescent="0.25">
@@ -2221,137 +2351,137 @@
         <v>70.322352941176504</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" t="s">
-        <v>197</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="7" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7">
         <v>2009</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13">
-        <v>13</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" t="s">
-        <v>197</v>
-      </c>
-      <c r="C14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>2009</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14">
-        <v>13</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14" t="s">
-        <v>25</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="I12" s="7">
+        <v>268</v>
+      </c>
+      <c r="J12" s="7">
+        <v>195.35</v>
+      </c>
+      <c r="K12" s="7">
+        <v>19</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1.1754385964912299</v>
+      </c>
+      <c r="M12" s="7">
+        <v>10.2815789473684</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="7" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2010</v>
+      </c>
+      <c r="I13" s="7">
+        <v>235</v>
+      </c>
+      <c r="J13" s="7">
+        <v>3</v>
+      </c>
+      <c r="K13" s="7">
+        <v>18</v>
+      </c>
+      <c r="L13" s="7">
+        <v>1.18686868686869</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2360,7 +2490,7 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -2369,139 +2499,139 @@
         <v>25</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16">
-        <v>1.25</v>
+      <c r="J16" t="s">
+        <v>25</v>
       </c>
       <c r="K16">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16">
-        <v>7.8125E-2</v>
+      <c r="M16" t="s">
+        <v>25</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17">
-        <v>4.8</v>
+      <c r="J17" t="s">
+        <v>25</v>
       </c>
       <c r="K17">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17">
-        <v>0.24</v>
+      <c r="M17" t="s">
+        <v>25</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="K18">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>5.3571428571428603E-2</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -2509,22 +2639,22 @@
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F19" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>2015</v>
@@ -2533,39 +2663,39 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.3</v>
+        <v>4.8</v>
       </c>
       <c r="K19">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.04285714285714</v>
-      </c>
-      <c r="N19" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>0.24</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2577,473 +2707,473 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.3</v>
+        <v>0.75</v>
       </c>
       <c r="K20">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.405555555555556</v>
-      </c>
-      <c r="N20" s="7"/>
-    </row>
-    <row r="21" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+        <v>5.3571428571428603E-2</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.95</v>
+        <v>7.3</v>
       </c>
       <c r="K21">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.28392857142857097</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+        <v>1.04285714285714</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.9</v>
+        <v>7.3</v>
       </c>
       <c r="K22">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
+        <v>0.405555555555556</v>
+      </c>
+      <c r="N22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>2016</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>7.95</v>
+      </c>
+      <c r="K23">
+        <v>28</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0.28392857142857097</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>204</v>
+      </c>
+      <c r="C24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>2016</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>11.9</v>
+      </c>
+      <c r="K24">
+        <v>30</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
         <v>0.396666666666667</v>
       </c>
-      <c r="N22" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" t="s">
-        <v>91</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>2018</v>
-      </c>
-      <c r="I24">
-        <v>2</v>
-      </c>
-      <c r="J24">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="K24">
-        <v>1235</v>
-      </c>
-      <c r="L24">
-        <v>8.0971659919028304E-4</v>
-      </c>
-      <c r="M24">
-        <v>3.5222672064777298E-3</v>
-      </c>
       <c r="N24" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="165" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>87</v>
-      </c>
-      <c r="B25" t="s">
-        <v>206</v>
-      </c>
-      <c r="C25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" t="s">
-        <v>94</v>
-      </c>
-      <c r="F25" t="s">
-        <v>95</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>2018</v>
-      </c>
-      <c r="I25">
-        <v>3</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>1263</v>
-      </c>
-      <c r="L25">
-        <v>1.18764845605701E-3</v>
-      </c>
-      <c r="M25">
-        <v>7.9176563737133805E-4</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E26" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F26" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="I26">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J26">
-        <v>4.8499999999999996</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="K26">
-        <v>1553</v>
+        <v>1235</v>
       </c>
       <c r="L26">
-        <v>1.28783000643915E-3</v>
+        <v>8.0971659919028304E-4</v>
       </c>
       <c r="M26">
-        <v>3.1229877656149402E-3</v>
+        <v>3.5222672064777298E-3</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>87</v>
       </c>
       <c r="B27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E27" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F27" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="I27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J27">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>320</v>
+        <v>1263</v>
       </c>
       <c r="L27">
-        <v>2.5000000000000001E-3</v>
+        <v>1.18764845605701E-3</v>
       </c>
       <c r="M27">
-        <v>2.3437499999999999E-3</v>
+        <v>7.9176563737133805E-4</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E28" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F28" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J28">
-        <v>76.900000000000006</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="K28">
-        <v>165</v>
+        <v>1553</v>
       </c>
       <c r="L28">
-        <v>3.0303030303030299E-3</v>
+        <v>1.28783000643915E-3</v>
       </c>
       <c r="M28">
-        <v>0.46606060606060601</v>
+        <v>3.1229877656149402E-3</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E29" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F29" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I29">
-        <v>8</v>
-      </c>
-      <c r="J29" t="s">
-        <v>25</v>
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <v>0.75</v>
       </c>
       <c r="K29">
-        <v>608</v>
+        <v>320</v>
       </c>
       <c r="L29">
-        <v>3.28947368421053E-3</v>
-      </c>
-      <c r="M29" t="s">
-        <v>25</v>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="M29">
+        <v>2.3437499999999999E-3</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>87</v>
       </c>
       <c r="B30" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E30" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F30" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30">
-        <v>1.5</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="K30">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="L30">
-        <v>3.3333333333333301E-3</v>
+        <v>3.0303030303030299E-3</v>
       </c>
       <c r="M30">
-        <v>0.03</v>
+        <v>0.46606060606060601</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F31" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="I31">
-        <v>2</v>
-      </c>
-      <c r="J31">
-        <v>1.85</v>
+        <v>8</v>
+      </c>
+      <c r="J31" t="s">
+        <v>25</v>
       </c>
       <c r="K31">
-        <v>59</v>
+        <v>608</v>
       </c>
       <c r="L31">
-        <v>4.2372881355932203E-3</v>
-      </c>
-      <c r="M31">
-        <v>3.1355932203389801E-2</v>
+        <v>3.28947368421053E-3</v>
+      </c>
+      <c r="M31" t="s">
+        <v>25</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="75" x14ac:dyDescent="0.25">
@@ -3051,295 +3181,295 @@
         <v>87</v>
       </c>
       <c r="B32" t="s">
+        <v>211</v>
+      </c>
+      <c r="C32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" t="s">
+        <v>115</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>2014</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1.5</v>
+      </c>
+      <c r="K32">
+        <v>50</v>
+      </c>
+      <c r="L32">
+        <v>3.3333333333333301E-3</v>
+      </c>
+      <c r="M32">
+        <v>0.03</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G33" s="8">
+        <v>1</v>
+      </c>
+      <c r="H33" s="8">
+        <v>2012</v>
+      </c>
+      <c r="I33" s="8">
+        <v>2</v>
+      </c>
+      <c r="J33" s="8">
+        <v>1.85</v>
+      </c>
+      <c r="K33" s="8">
+        <v>59</v>
+      </c>
+      <c r="L33" s="8">
+        <v>4.2372881355932203E-3</v>
+      </c>
+      <c r="M33" s="8">
+        <v>3.1355932203389801E-2</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" t="s">
         <v>213</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
         <v>120</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E34" t="s">
         <v>122</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F34" t="s">
         <v>123</v>
       </c>
-      <c r="G32">
+      <c r="G34">
         <v>2</v>
       </c>
-      <c r="H32">
+      <c r="H34">
         <v>2017</v>
       </c>
-      <c r="I32">
+      <c r="I34">
         <v>4</v>
       </c>
-      <c r="J32">
+      <c r="J34">
         <v>14.25</v>
       </c>
-      <c r="K32">
+      <c r="K34">
         <v>306</v>
       </c>
-      <c r="L32">
+      <c r="L34">
         <v>4.3572984749455299E-3</v>
       </c>
-      <c r="M32">
+      <c r="M34">
         <v>4.65686274509804E-2</v>
       </c>
-      <c r="N32" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="105" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="N34" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>87</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>214</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>124</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E35" t="s">
         <v>126</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F35" t="s">
         <v>127</v>
       </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
         <v>2017</v>
       </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
         <v>1.6</v>
       </c>
-      <c r="K33">
+      <c r="K35">
         <v>76</v>
       </c>
-      <c r="L33">
+      <c r="L35">
         <v>4.3859649122806998E-3</v>
       </c>
-      <c r="M33">
+      <c r="M35">
         <v>2.1052631578947399E-2</v>
       </c>
-      <c r="N33" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="5"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="5"/>
-    </row>
-    <row r="36" spans="1:14" ht="150" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>128</v>
-      </c>
-      <c r="B36" t="s">
-        <v>196</v>
-      </c>
-      <c r="C36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" t="s">
-        <v>52</v>
-      </c>
-      <c r="F36" t="s">
-        <v>53</v>
-      </c>
-      <c r="G36">
-        <v>4</v>
-      </c>
-      <c r="H36">
-        <v>2012</v>
-      </c>
-      <c r="I36">
-        <v>180</v>
-      </c>
-      <c r="J36">
-        <v>1195.48</v>
-      </c>
-      <c r="K36">
-        <v>17</v>
-      </c>
-      <c r="L36">
-        <v>1.3235294117647101</v>
-      </c>
-      <c r="M36">
-        <v>70.322352941176504</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>128</v>
-      </c>
-      <c r="B37" t="s">
-        <v>215</v>
-      </c>
-      <c r="C37" t="s">
-        <v>129</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E37" t="s">
-        <v>131</v>
-      </c>
-      <c r="F37" t="s">
-        <v>132</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>2011</v>
-      </c>
-      <c r="I37">
-        <v>83</v>
-      </c>
-      <c r="J37">
-        <v>629.03800000000001</v>
-      </c>
-      <c r="K37">
-        <v>11</v>
-      </c>
-      <c r="L37">
-        <v>0.83838383838383801</v>
-      </c>
-      <c r="M37">
-        <v>57.185272727272697</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="135" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>128</v>
-      </c>
-      <c r="B38" t="s">
-        <v>216</v>
-      </c>
-      <c r="C38" t="s">
-        <v>133</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E38" t="s">
-        <v>135</v>
-      </c>
-      <c r="F38" t="s">
-        <v>136</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>2017</v>
-      </c>
-      <c r="I38">
-        <v>47</v>
-      </c>
-      <c r="J38">
-        <v>1167.7560000000001</v>
-      </c>
-      <c r="K38">
-        <v>24</v>
-      </c>
-      <c r="L38">
-        <v>0.65277777777777801</v>
-      </c>
-      <c r="M38">
-        <v>48.656500000000001</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>259</v>
-      </c>
+      <c r="N35" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G36" s="7">
+        <v>1</v>
+      </c>
+      <c r="H36" s="7">
+        <v>2018</v>
+      </c>
+      <c r="I36" s="7">
+        <v>1</v>
+      </c>
+      <c r="J36" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="K36" s="7">
+        <v>104</v>
+      </c>
+      <c r="L36" s="7">
+        <v>3.2051282051282098E-3</v>
+      </c>
+      <c r="M36" s="7">
+        <v>1.5384615384615399E-2</v>
+      </c>
+      <c r="N36" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="5"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="5"/>
     </row>
     <row r="39" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>128</v>
       </c>
       <c r="B39" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="C39" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>138</v>
+        <v>51</v>
       </c>
       <c r="E39" t="s">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="F39" t="s">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H39">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="I39">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="J39">
-        <v>1143.1880000000001</v>
+        <v>1195.48</v>
       </c>
       <c r="K39">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="L39">
-        <v>0.96</v>
+        <v>1.3235294117647101</v>
       </c>
       <c r="M39">
-        <v>45.727519999999998</v>
+        <v>70.322352941176504</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="90" x14ac:dyDescent="0.25">
@@ -3347,19 +3477,19 @@
         <v>128</v>
       </c>
       <c r="B40" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C40" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="E40" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F40" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3368,433 +3498,454 @@
         <v>2011</v>
       </c>
       <c r="I40">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="J40">
-        <v>554.66</v>
+        <v>629.03800000000001</v>
       </c>
       <c r="K40">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L40">
-        <v>0.59876543209876498</v>
+        <v>0.83838383838383801</v>
       </c>
       <c r="M40">
-        <v>30.814444444444401</v>
+        <v>57.185272727272697</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>128</v>
       </c>
       <c r="B41" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C41" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E41" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F41" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="J41">
-        <v>372.68</v>
+        <v>1167.7560000000001</v>
       </c>
       <c r="K41">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L41">
-        <v>3.5714285714285698E-2</v>
+        <v>0.65277777777777801</v>
       </c>
       <c r="M41">
-        <v>26.62</v>
+        <v>48.656500000000001</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>128</v>
       </c>
       <c r="B42" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C42" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E42" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="F42" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I42">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="J42">
-        <v>882.80200000000002</v>
+        <v>1143.1880000000001</v>
       </c>
       <c r="K42">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="L42">
-        <v>0.75833333333333297</v>
+        <v>0.96</v>
       </c>
       <c r="M42">
-        <v>22.070049999999998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>45.727519999999998</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>128</v>
       </c>
       <c r="B43" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C43" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="E43" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="F43" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="I43">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="J43">
-        <v>264.45</v>
+        <v>554.66</v>
       </c>
       <c r="K43">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L43">
-        <v>0.42857142857142899</v>
+        <v>0.59876543209876498</v>
       </c>
       <c r="M43">
-        <v>22.037500000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+        <v>30.814444444444401</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>128</v>
       </c>
       <c r="B44" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H44">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="I44">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="J44">
-        <v>212.91200000000001</v>
+        <v>372.68</v>
       </c>
       <c r="K44">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L44">
-        <v>1.3857142857142899</v>
+        <v>3.5714285714285698E-2</v>
       </c>
       <c r="M44">
-        <v>21.2912</v>
+        <v>26.62</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>128</v>
       </c>
       <c r="B45" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E45" t="s">
+        <v>151</v>
+      </c>
+      <c r="F45" t="s">
+        <v>152</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>2011</v>
+      </c>
+      <c r="I45">
+        <v>273</v>
+      </c>
+      <c r="J45">
+        <v>882.80200000000002</v>
+      </c>
+      <c r="K45">
+        <v>40</v>
+      </c>
+      <c r="L45">
+        <v>0.75833333333333297</v>
+      </c>
+      <c r="M45">
+        <v>22.070049999999998</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" t="s">
+        <v>221</v>
+      </c>
+      <c r="C46" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E46" t="s">
+        <v>155</v>
+      </c>
+      <c r="F46" t="s">
+        <v>156</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>2013</v>
+      </c>
+      <c r="I46">
+        <v>36</v>
+      </c>
+      <c r="J46">
+        <v>264.45</v>
+      </c>
+      <c r="K46">
+        <v>12</v>
+      </c>
+      <c r="L46">
+        <v>0.42857142857142899</v>
+      </c>
+      <c r="M46">
+        <v>22.037500000000001</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" t="s">
+        <v>194</v>
+      </c>
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>45</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>2013</v>
+      </c>
+      <c r="I47">
+        <v>97</v>
+      </c>
+      <c r="J47">
+        <v>212.91200000000001</v>
+      </c>
+      <c r="K47">
+        <v>10</v>
+      </c>
+      <c r="L47">
+        <v>1.3857142857142899</v>
+      </c>
+      <c r="M47">
+        <v>21.2912</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" t="s">
         <v>222</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C48" t="s">
         <v>157</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E48" t="s">
         <v>159</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F48" t="s">
         <v>160</v>
       </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45">
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
         <v>2014</v>
       </c>
-      <c r="I45">
+      <c r="I48">
         <v>57</v>
       </c>
-      <c r="J45">
+      <c r="J48">
         <v>359.214</v>
       </c>
-      <c r="K45">
+      <c r="K48">
         <v>18</v>
       </c>
-      <c r="L45">
+      <c r="L48">
         <v>0.52777777777777801</v>
       </c>
-      <c r="M45">
+      <c r="M48">
         <v>19.956333333333301</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="5"/>
-    </row>
-    <row r="47" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>161</v>
-      </c>
-      <c r="B47" t="s">
-        <v>206</v>
-      </c>
-      <c r="C47" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E47" t="s">
-        <v>94</v>
-      </c>
-      <c r="F47" t="s">
-        <v>95</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>2018</v>
-      </c>
-      <c r="I47">
-        <v>3</v>
-      </c>
-      <c r="J47">
-        <v>1</v>
-      </c>
-      <c r="K47">
-        <v>1263</v>
-      </c>
-      <c r="L47">
-        <v>1.18764845605701E-3</v>
-      </c>
-      <c r="M47">
-        <v>7.9176563737133805E-4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>161</v>
-      </c>
-      <c r="B48" t="s">
-        <v>223</v>
-      </c>
-      <c r="C48" t="s">
-        <v>162</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E48" t="s">
-        <v>164</v>
-      </c>
-      <c r="F48" t="s">
-        <v>165</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>2016</v>
-      </c>
-      <c r="I48">
-        <v>6</v>
-      </c>
-      <c r="J48">
-        <v>0.25</v>
-      </c>
-      <c r="K48">
-        <v>298</v>
-      </c>
-      <c r="L48">
-        <v>5.0335570469798698E-3</v>
-      </c>
-      <c r="M48">
-        <v>8.3892617449664395E-4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>161</v>
-      </c>
-      <c r="B49" t="s">
-        <v>224</v>
-      </c>
-      <c r="C49" t="s">
-        <v>166</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E49" t="s">
-        <v>168</v>
-      </c>
-      <c r="F49" t="s">
-        <v>169</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>2016</v>
-      </c>
-      <c r="I49">
-        <v>12</v>
-      </c>
-      <c r="J49">
-        <v>0.25</v>
-      </c>
-      <c r="K49">
-        <v>291</v>
-      </c>
-      <c r="L49">
-        <v>1.03092783505155E-2</v>
-      </c>
-      <c r="M49">
-        <v>8.5910652920962198E-4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N48" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="5"/>
+    </row>
+    <row r="50" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>161</v>
       </c>
       <c r="B50" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="C50" t="s">
-        <v>170</v>
+        <v>92</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>171</v>
+        <v>93</v>
       </c>
       <c r="E50" t="s">
-        <v>172</v>
+        <v>94</v>
       </c>
       <c r="F50" t="s">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="I50">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="J50">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="K50">
-        <v>1277</v>
+        <v>1263</v>
       </c>
       <c r="L50">
-        <v>6.5257113025319804E-3</v>
+        <v>1.18764845605701E-3</v>
       </c>
       <c r="M50">
-        <v>1.1746280344557599E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>7.9176563737133805E-4</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>161</v>
       </c>
       <c r="B51" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C51" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="E51" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="F51" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -3803,121 +3954,130 @@
         <v>2016</v>
       </c>
       <c r="I51">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J51">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K51">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="L51">
-        <v>1.0416666666666701E-2</v>
+        <v>5.0335570469798698E-3</v>
       </c>
       <c r="M51">
-        <v>1.8939393939393901E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8.3892617449664395E-4</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>161</v>
       </c>
       <c r="B52" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="C52" t="s">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="E52" t="s">
-        <v>102</v>
+        <v>168</v>
       </c>
       <c r="F52" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="I52">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J52">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="K52">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="L52">
-        <v>2.5000000000000001E-3</v>
+        <v>1.03092783505155E-2</v>
       </c>
       <c r="M52">
-        <v>2.3437499999999999E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8.5910652920962198E-4</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>161</v>
       </c>
       <c r="B53" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C53" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E53" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F53" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="J53">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="K53">
-        <v>85</v>
+        <v>1277</v>
       </c>
       <c r="L53">
-        <v>1.7647058823529401E-2</v>
+        <v>6.5257113025319804E-3</v>
       </c>
       <c r="M53">
-        <v>2.94117647058824E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>1.1746280344557599E-3</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>161</v>
       </c>
       <c r="B54" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C54" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E54" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F54" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -3926,80 +4086,86 @@
         <v>2016</v>
       </c>
       <c r="I54">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J54">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="K54">
-        <v>561</v>
+        <v>264</v>
       </c>
       <c r="L54">
-        <v>8.4670231729055308E-3</v>
+        <v>1.0416666666666701E-2</v>
       </c>
       <c r="M54">
-        <v>3.1194295900178301E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>1.8939393939393901E-3</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>161</v>
       </c>
       <c r="B55" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C55" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E55" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F55" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="I55">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J55">
-        <v>4.8499999999999996</v>
+        <v>0.75</v>
       </c>
       <c r="K55">
-        <v>1553</v>
+        <v>320</v>
       </c>
       <c r="L55">
-        <v>1.28783000643915E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="M55">
-        <v>3.1229877656149402E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>2.3437499999999999E-3</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>161</v>
       </c>
       <c r="B56" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="C56" t="s">
-        <v>88</v>
+        <v>178</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>89</v>
+        <v>179</v>
       </c>
       <c r="E56" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F56" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -4008,24 +4174,159 @@
         <v>2018</v>
       </c>
       <c r="I56">
+        <v>3</v>
+      </c>
+      <c r="J56">
+        <v>0.25</v>
+      </c>
+      <c r="K56">
+        <v>85</v>
+      </c>
+      <c r="L56">
+        <v>1.7647058823529401E-2</v>
+      </c>
+      <c r="M56">
+        <v>2.94117647058824E-3</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>161</v>
+      </c>
+      <c r="B57" t="s">
+        <v>228</v>
+      </c>
+      <c r="C57" t="s">
+        <v>182</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E57" t="s">
+        <v>184</v>
+      </c>
+      <c r="F57" t="s">
+        <v>185</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>2016</v>
+      </c>
+      <c r="I57">
+        <v>19</v>
+      </c>
+      <c r="J57">
+        <v>1.75</v>
+      </c>
+      <c r="K57">
+        <v>561</v>
+      </c>
+      <c r="L57">
+        <v>8.4670231729055308E-3</v>
+      </c>
+      <c r="M57">
+        <v>3.1194295900178301E-3</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>161</v>
+      </c>
+      <c r="B58" t="s">
+        <v>207</v>
+      </c>
+      <c r="C58" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E58" t="s">
+        <v>98</v>
+      </c>
+      <c r="F58" t="s">
+        <v>99</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>2017</v>
+      </c>
+      <c r="I58">
+        <v>6</v>
+      </c>
+      <c r="J58">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="K58">
+        <v>1553</v>
+      </c>
+      <c r="L58">
+        <v>1.28783000643915E-3</v>
+      </c>
+      <c r="M58">
+        <v>3.1229877656149402E-3</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>161</v>
+      </c>
+      <c r="B59" t="s">
+        <v>205</v>
+      </c>
+      <c r="C59" t="s">
+        <v>88</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E59" t="s">
+        <v>90</v>
+      </c>
+      <c r="F59" t="s">
+        <v>91</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>2018</v>
+      </c>
+      <c r="I59">
         <v>2</v>
       </c>
-      <c r="J56">
+      <c r="J59">
         <v>4.3499999999999996</v>
       </c>
-      <c r="K56">
+      <c r="K59">
         <v>1235</v>
       </c>
-      <c r="L56">
+      <c r="L59">
         <v>8.0971659919028304E-4</v>
       </c>
-      <c r="M56">
+      <c r="M59">
         <v>3.5222672064777298E-3</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="N21:N22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
